--- a/xlsx/前哥伦布时期_intext.xlsx
+++ b/xlsx/前哥伦布时期_intext.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="350">
   <si>
     <t>前哥伦布时期</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E4%BC%A6%E5%B8%83%E6%97%B6%E6%9C%9F</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Pre-Columbian_era</t>
@@ -29,19 +29,19 @@
     <t>en-Pre-Columbian era</t>
   </si>
   <si>
-    <t>政策_政策_美國_前哥伦布时期</t>
+    <t>政策_政策_美国_前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歷史</t>
+    <t>历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%89%8D%E5%8F%B2</t>
@@ -65,19 +65,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%8A%E7%9F%B3%E5%99%A8%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>舊石器時代</t>
+    <t>旧石器时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BA%BA</t>
   </si>
   <si>
-    <t>歐洲人</t>
+    <t>欧洲人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%C2%B7%E5%93%A5%E5%80%AB%E5%B8%83</t>
   </si>
   <si>
-    <t>克里斯多福·哥倫布</t>
+    <t>克里斯多福·哥伦布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A3%E8%BF%B0%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>口述歷史</t>
+    <t>口述历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E9%9B%85%E6%96%87%E6%98%8E</t>
   </si>
   <si>
-    <t>瑪雅文明</t>
+    <t>玛雅文明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%82%E7%AB%AF</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E4%BA%9E%E5%93%A5%C2%B7%E5%BE%B7%C2%B7%E8%98%AD%E9%81%94</t>
   </si>
   <si>
-    <t>迪亞哥·德·蘭達</t>
+    <t>迪亚哥·德·兰达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%83%A8%E7%BE%8E%E6%B4%B2</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%8C%B2%E6%8F%90%E5%85%8B%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿茲提克帝國</t>
+    <t>阿兹提克帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%9B%85%E6%96%87%E6%98%8E</t>
   </si>
   <si>
-    <t>馬雅文明</t>
+    <t>马雅文明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E6%96%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>安地斯山脈</t>
+    <t>安地斯山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%8A%A0%E6%96%87%E6%98%8E</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
@@ -437,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -455,13 +455,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -575,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -623,13 +623,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -641,13 +641,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -659,13 +659,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -713,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -725,13 +725,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -743,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taxation_in_the_United_States</t>
@@ -755,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -767,13 +767,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -797,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -869,15 +869,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -887,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -941,7 +938,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -977,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -995,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1031,19 +1028,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1055,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -1068,15 +1065,6 @@
   </si>
   <si>
     <t>美国种族主义</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1425,7 +1413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5594,7 +5582,7 @@
         <v>285</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5620,10 +5608,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>286</v>
+      </c>
+      <c r="F145" t="s">
         <v>287</v>
-      </c>
-      <c r="F145" t="s">
-        <v>288</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5649,10 +5637,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>288</v>
+      </c>
+      <c r="F146" t="s">
         <v>289</v>
-      </c>
-      <c r="F146" t="s">
-        <v>290</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5678,10 +5666,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" t="s">
         <v>291</v>
-      </c>
-      <c r="F147" t="s">
-        <v>292</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5707,10 +5695,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>292</v>
+      </c>
+      <c r="F148" t="s">
         <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>294</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5736,10 +5724,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>294</v>
+      </c>
+      <c r="F149" t="s">
         <v>295</v>
-      </c>
-      <c r="F149" t="s">
-        <v>296</v>
       </c>
       <c r="G149" t="n">
         <v>9</v>
@@ -5765,10 +5753,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>296</v>
+      </c>
+      <c r="F150" t="s">
         <v>297</v>
-      </c>
-      <c r="F150" t="s">
-        <v>298</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5794,10 +5782,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>298</v>
+      </c>
+      <c r="F151" t="s">
         <v>299</v>
-      </c>
-      <c r="F151" t="s">
-        <v>300</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5823,10 +5811,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>300</v>
+      </c>
+      <c r="F152" t="s">
         <v>301</v>
-      </c>
-      <c r="F152" t="s">
-        <v>302</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5852,10 +5840,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>302</v>
+      </c>
+      <c r="F153" t="s">
         <v>303</v>
-      </c>
-      <c r="F153" t="s">
-        <v>304</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5881,10 +5869,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>304</v>
+      </c>
+      <c r="F154" t="s">
         <v>305</v>
-      </c>
-      <c r="F154" t="s">
-        <v>306</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5910,10 +5898,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>306</v>
+      </c>
+      <c r="F155" t="s">
         <v>307</v>
-      </c>
-      <c r="F155" t="s">
-        <v>308</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5939,10 +5927,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>308</v>
+      </c>
+      <c r="F156" t="s">
         <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>310</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5968,10 +5956,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>310</v>
+      </c>
+      <c r="F157" t="s">
         <v>311</v>
-      </c>
-      <c r="F157" t="s">
-        <v>312</v>
       </c>
       <c r="G157" t="n">
         <v>4</v>
@@ -5997,10 +5985,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>312</v>
+      </c>
+      <c r="F158" t="s">
         <v>313</v>
-      </c>
-      <c r="F158" t="s">
-        <v>314</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6026,10 +6014,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>314</v>
+      </c>
+      <c r="F159" t="s">
         <v>315</v>
-      </c>
-      <c r="F159" t="s">
-        <v>316</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6055,10 +6043,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>316</v>
+      </c>
+      <c r="F160" t="s">
         <v>317</v>
-      </c>
-      <c r="F160" t="s">
-        <v>318</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6084,10 +6072,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>318</v>
+      </c>
+      <c r="F161" t="s">
         <v>319</v>
-      </c>
-      <c r="F161" t="s">
-        <v>320</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6113,10 +6101,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>320</v>
+      </c>
+      <c r="F162" t="s">
         <v>321</v>
-      </c>
-      <c r="F162" t="s">
-        <v>322</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6142,10 +6130,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>322</v>
+      </c>
+      <c r="F163" t="s">
         <v>323</v>
-      </c>
-      <c r="F163" t="s">
-        <v>324</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6171,10 +6159,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>324</v>
+      </c>
+      <c r="F164" t="s">
         <v>325</v>
-      </c>
-      <c r="F164" t="s">
-        <v>326</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6200,10 +6188,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>326</v>
+      </c>
+      <c r="F165" t="s">
         <v>327</v>
-      </c>
-      <c r="F165" t="s">
-        <v>328</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6229,10 +6217,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>328</v>
+      </c>
+      <c r="F166" t="s">
         <v>329</v>
-      </c>
-      <c r="F166" t="s">
-        <v>330</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6258,10 +6246,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>330</v>
+      </c>
+      <c r="F167" t="s">
         <v>331</v>
-      </c>
-      <c r="F167" t="s">
-        <v>332</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6287,10 +6275,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>332</v>
+      </c>
+      <c r="F168" t="s">
         <v>333</v>
-      </c>
-      <c r="F168" t="s">
-        <v>334</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6316,10 +6304,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>334</v>
+      </c>
+      <c r="F169" t="s">
         <v>335</v>
-      </c>
-      <c r="F169" t="s">
-        <v>336</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6345,10 +6333,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>336</v>
+      </c>
+      <c r="F170" t="s">
         <v>337</v>
-      </c>
-      <c r="F170" t="s">
-        <v>338</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6374,10 +6362,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>338</v>
+      </c>
+      <c r="F171" t="s">
         <v>339</v>
-      </c>
-      <c r="F171" t="s">
-        <v>340</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6403,10 +6391,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>340</v>
+      </c>
+      <c r="F172" t="s">
         <v>341</v>
-      </c>
-      <c r="F172" t="s">
-        <v>342</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6432,10 +6420,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>342</v>
+      </c>
+      <c r="F173" t="s">
         <v>343</v>
-      </c>
-      <c r="F173" t="s">
-        <v>344</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -6461,10 +6449,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>344</v>
+      </c>
+      <c r="F174" t="s">
         <v>345</v>
-      </c>
-      <c r="F174" t="s">
-        <v>346</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6490,10 +6478,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>346</v>
+      </c>
+      <c r="F175" t="s">
         <v>347</v>
-      </c>
-      <c r="F175" t="s">
-        <v>348</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6519,11 +6507,11 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>348</v>
+      </c>
+      <c r="F176" t="s">
         <v>349</v>
       </c>
-      <c r="F176" t="s">
-        <v>350</v>
-      </c>
       <c r="G176" t="n">
         <v>1</v>
       </c>
@@ -6531,64 +6519,6 @@
         <v>4</v>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="s">
-        <v>0</v>
-      </c>
-      <c r="C177" t="s">
-        <v>1</v>
-      </c>
-      <c r="D177" t="n">
-        <v>176</v>
-      </c>
-      <c r="E177" t="s">
-        <v>351</v>
-      </c>
-      <c r="F177" t="s">
-        <v>352</v>
-      </c>
-      <c r="G177" t="n">
-        <v>8</v>
-      </c>
-      <c r="H177" t="s">
-        <v>4</v>
-      </c>
-      <c r="I177" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="s">
-        <v>0</v>
-      </c>
-      <c r="C178" t="s">
-        <v>1</v>
-      </c>
-      <c r="D178" t="n">
-        <v>177</v>
-      </c>
-      <c r="E178" t="s">
-        <v>351</v>
-      </c>
-      <c r="F178" t="s">
-        <v>353</v>
-      </c>
-      <c r="G178" t="n">
-        <v>1</v>
-      </c>
-      <c r="H178" t="s">
-        <v>4</v>
-      </c>
-      <c r="I178" t="n">
         <v>3</v>
       </c>
     </row>
